--- a/Practice 1.xlsx
+++ b/Practice 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT-Concept\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT-Concept\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Lowest</t>
+  </si>
+  <si>
+    <t>HW</t>
   </si>
 </sst>
 </file>
@@ -449,13 +452,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="medium">
           <color indexed="64"/>
         </top>
@@ -478,6 +474,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -517,7 +520,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H7" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
   <autoFilter ref="A1:H7"/>
   <tableColumns count="8">
     <tableColumn id="1" name="S.L" dataDxfId="7"/>
@@ -527,13 +530,13 @@
     <tableColumn id="7" name="Purchase amount" dataDxfId="3">
       <calculatedColumnFormula>C2*D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Discount" dataDxfId="0">
+    <tableColumn id="8" name="Discount" dataDxfId="2">
       <calculatedColumnFormula>IF(E2&gt;=50000,E2*0.1,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="Need to Purchase" dataDxfId="1">
       <calculatedColumnFormula>IF(E2&lt;50000,50000-E2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Column1" dataDxfId="2">
+    <tableColumn id="10" name="Column1" dataDxfId="0">
       <calculatedColumnFormula>E2-F2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -804,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +823,7 @@
     <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -846,7 +849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -860,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E7" si="0">C2*D2</f>
+        <f t="shared" ref="E2:E6" si="0">C2*D2</f>
         <v>60000</v>
       </c>
       <c r="F2" s="2">
@@ -876,7 +879,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -906,7 +909,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -936,7 +939,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -966,7 +969,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -996,7 +999,7 @@
         <v>162000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1021,18 +1024,18 @@
         <v>459000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
@@ -1048,8 +1051,11 @@
       <c r="G11" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>1234</v>
       </c>
@@ -1076,8 +1082,16 @@
         <f>IF(AND(B12&gt;=80*0.7,B12&lt;80*0.8),"A",IF(B12&gt;=80*0.8,"A+","fail"))</f>
         <v>A+</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <f>IF(B12&gt;=80*0.7-0.8,"A",IF(B12&gt;=80*0.8,"A+",IF(B12&gt;=80*0.6-0.69,"B","C")))</f>
+        <v>A</v>
+      </c>
+      <c r="I12" t="str">
+        <f>IF(B12&gt;=80*0.7-0.8,"A",IF(B12&gt;=80*0.8,"A+",IF(B12&lt;80*0.6,"B",IF(B12&gt;=80*0.5-0.6,"C","D"))))</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>1234</v>
       </c>
@@ -1104,8 +1118,16 @@
         <f t="shared" ref="G13:G21" si="8">IF(AND(B13&gt;=80*0.7,B13&lt;80*0.8),"A",IF(B13&gt;=80*0.8,"A+","fail"))</f>
         <v>A+</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" t="str">
+        <f t="shared" ref="H13:H21" si="9">IF(B13&gt;=80*0.7-0.8,"A",IF(B13&gt;=80*0.8,"A+",IF(B13&gt;=80*0.6-0.69,"B","C")))</f>
+        <v>A</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13:I21" si="10">IF(B13&gt;=80*0.7-0.8,"A",IF(B13&gt;=80*0.8,"A+",IF(B13&lt;80*0.6,"B",IF(B13&gt;=80*0.5-0.6,"C","D"))))</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1236</v>
       </c>
@@ -1132,8 +1154,16 @@
         <f t="shared" si="8"/>
         <v>A+</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>1237</v>
       </c>
@@ -1160,8 +1190,16 @@
         <f t="shared" si="8"/>
         <v>A+</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>1238</v>
       </c>
@@ -1188,8 +1226,16 @@
         <f t="shared" si="8"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>1239</v>
       </c>
@@ -1216,8 +1262,16 @@
         <f t="shared" si="8"/>
         <v>fail</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>1240</v>
       </c>
@@ -1244,8 +1298,16 @@
         <f t="shared" si="8"/>
         <v>fail</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>1241</v>
       </c>
@@ -1272,8 +1334,16 @@
         <f t="shared" si="8"/>
         <v>fail</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>1242</v>
       </c>
@@ -1300,8 +1370,16 @@
         <f t="shared" si="8"/>
         <v>fail</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>1243</v>
       </c>
@@ -1328,8 +1406,16 @@
         <f t="shared" si="8"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>17</v>
       </c>
@@ -1343,7 +1429,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>18</v>
       </c>

--- a/Practice 1.xlsx
+++ b/Practice 1.xlsx
@@ -9,21 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Practice-1" sheetId="1" r:id="rId1"/>
     <sheet name="Exam-2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Tax" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet11" sheetId="12" r:id="rId5"/>
     <sheet name="Sheet10" sheetId="11" r:id="rId6"/>
-    <sheet name="Sheet9" sheetId="10" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId9"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId10"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId11"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId12"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_exammarks.xlsxTable11" hidden="1">Table1[]</definedName>
@@ -33,20 +32,20 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId13"/>
-    <pivotCache cacheId="1" r:id="rId14"/>
-    <pivotCache cacheId="2" r:id="rId15"/>
-    <pivotCache cacheId="3" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
+    <pivotCache cacheId="1" r:id="rId13"/>
+    <pivotCache cacheId="2" r:id="rId14"/>
+    <pivotCache cacheId="3" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{841E416B-1EF1-43b6-AB56-02D37102CBD5}">
       <x15:pivotCaches>
-        <pivotCache cacheId="4" r:id="rId17"/>
+        <pivotCache cacheId="4" r:id="rId16"/>
       </x15:pivotCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{983426D0-5260-488c-9760-48F4B6AC55F4}">
       <x15:pivotTableReferences>
-        <x15:pivotTableReference r:id="rId18"/>
+        <x15:pivotTableReference r:id="rId17"/>
       </x15:pivotTableReferences>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -284,22 +283,22 @@
     <t>0-250000</t>
   </si>
   <si>
-    <t>250001-399999</t>
+    <t>Tax Rate</t>
   </si>
   <si>
-    <t>400000-499999</t>
+    <t>250001-400000</t>
   </si>
   <si>
-    <t>500000-599999</t>
+    <t>400001-500000</t>
   </si>
   <si>
-    <t>600000-2999999</t>
+    <t>500001-600000</t>
   </si>
   <si>
-    <t>3000000-above</t>
+    <t>3000001-above</t>
   </si>
   <si>
-    <t>Tax Rate</t>
+    <t>600001-3000000</t>
   </si>
 </sst>
 </file>
@@ -311,7 +310,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +396,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -448,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -668,12 +672,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -805,13 +822,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1153,7 +1180,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[exam-marks.xlsx]Sheet11!PivotTable5</c:name>
+    <c:name>[Practice 1.xlsx]Sheet11!PivotTable5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1590,7 +1617,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[exam-marks.xlsx]Sheet8!PivotTable4</c:name>
+    <c:name>[Practice 1.xlsx]Sheet8!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2030,11 +2057,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="119440368"/>
-        <c:axId val="119440928"/>
+        <c:axId val="123565552"/>
+        <c:axId val="123566112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119440368"/>
+        <c:axId val="123565552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,7 +2104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119440928"/>
+        <c:crossAx val="123566112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2085,7 +2112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119440928"/>
+        <c:axId val="123566112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,7 +2163,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119440368"/>
+        <c:crossAx val="123565552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2150,6 +2177,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2427,11 +2455,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="119443168"/>
-        <c:axId val="119443728"/>
+        <c:axId val="123568352"/>
+        <c:axId val="123568912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119443168"/>
+        <c:axId val="123568352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2474,7 +2502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119443728"/>
+        <c:crossAx val="123568912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2487,7 +2515,7 @@
         </c:extLst>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119443728"/>
+        <c:axId val="123568912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,7 +2566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119443168"/>
+        <c:crossAx val="123568352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
@@ -2623,7 +2651,7 @@
     </c:ext>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[exam-marks.xlsx]PivotChartTable1</c15:name>
+        <c15:name>[Practice 1.xlsx]PivotChartTable1</c15:name>
         <c15:fmtId val="0"/>
       </c15:pivotSource>
       <c15:pivotOptions>
@@ -6622,14 +6650,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D16" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D18" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D18"/>
   <tableColumns count="4">
     <tableColumn id="1" name="ID" dataDxfId="3"/>
     <tableColumn id="2" name="Name" dataDxfId="2"/>
     <tableColumn id="3" name="Income" dataDxfId="1"/>
     <tableColumn id="4" name="TAX" dataDxfId="0">
-      <calculatedColumnFormula>IF(C2&lt;250000,"C2*i3",IF(AND(C2&gt;250001,C2&lt;399999),"c2*i4",IF(AND(C2&gt;400000,C2&lt;499999),"c2*i5",IF(AND(C2&gt;500000,C2&lt;599999),"c2*i6",IF(AND(C2&gt;600000,C2&lt;2999999),"c2*i7",IF(C2&gt;=3000000,"c2*i8","F"))))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(C2&lt;=250000,C2*0,IF(C2&lt;=400000,250000*0+(C2-250000)*0.1,IF(C2&lt;=500000,250000*0+(400000-250000)*0.1+(C2-400000)*0.15,IF(C2&lt;=600000,250000*0+(400000-250000)*0.1+(500000-400000)*0.15+(C2-500000)*0.2,IF(C2&lt;=3000000,250000*0+(400000-250000)*0.1+(500000-400000)*0.15+(600000-500000)*0.2+(C2-600000)*0.25,IF(C2=3000000,250000*0+(400000-250000)*0.1+(500000-400000)*0.15+(600000-500000)*0.2+(3000000-600000)*0.25)+(C2-3000000)*0.35)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7288,1077 +7316,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D77"/>
-  <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
-        <v>1246188</v>
-      </c>
-      <c r="B4" s="28">
-        <v>76</v>
-      </c>
-      <c r="C4" s="28">
-        <v>5</v>
-      </c>
-      <c r="D4" s="28">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="28">
-        <v>76</v>
-      </c>
-      <c r="C5" s="28">
-        <v>5</v>
-      </c>
-      <c r="D5" s="28">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="28">
-        <v>76</v>
-      </c>
-      <c r="C6" s="28">
-        <v>5</v>
-      </c>
-      <c r="D6" s="28">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="28">
-        <v>76</v>
-      </c>
-      <c r="C7" s="28">
-        <v>5</v>
-      </c>
-      <c r="D7" s="28">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="28">
-        <v>76</v>
-      </c>
-      <c r="C8" s="28">
-        <v>5</v>
-      </c>
-      <c r="D8" s="28">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="28">
-        <v>76</v>
-      </c>
-      <c r="C9" s="28">
-        <v>5</v>
-      </c>
-      <c r="D9" s="28">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
-        <v>1246209</v>
-      </c>
-      <c r="B10" s="28">
-        <v>66</v>
-      </c>
-      <c r="C10" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="D10" s="28">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="28">
-        <v>66</v>
-      </c>
-      <c r="C11" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="D11" s="28">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="28">
-        <v>66</v>
-      </c>
-      <c r="C12" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="D12" s="28">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="28">
-        <v>66</v>
-      </c>
-      <c r="C13" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="D13" s="28">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="28">
-        <v>66</v>
-      </c>
-      <c r="C14" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="D14" s="28">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="28">
-        <v>66</v>
-      </c>
-      <c r="C15" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="D15" s="28">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
-        <v>1246494</v>
-      </c>
-      <c r="B16" s="28">
-        <v>58</v>
-      </c>
-      <c r="C16" s="28">
-        <v>2</v>
-      </c>
-      <c r="D16" s="28">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="28">
-        <v>58</v>
-      </c>
-      <c r="C17" s="28">
-        <v>2</v>
-      </c>
-      <c r="D17" s="28">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="28">
-        <v>58</v>
-      </c>
-      <c r="C18" s="28">
-        <v>2</v>
-      </c>
-      <c r="D18" s="28">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="28">
-        <v>58</v>
-      </c>
-      <c r="C19" s="28">
-        <v>2</v>
-      </c>
-      <c r="D19" s="28">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="28">
-        <v>58</v>
-      </c>
-      <c r="C20" s="28">
-        <v>2</v>
-      </c>
-      <c r="D20" s="28">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="28">
-        <v>58</v>
-      </c>
-      <c r="C21" s="28">
-        <v>2</v>
-      </c>
-      <c r="D21" s="28">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
-        <v>1246643</v>
-      </c>
-      <c r="B22" s="28">
-        <v>62</v>
-      </c>
-      <c r="C22" s="28">
-        <v>5</v>
-      </c>
-      <c r="D22" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="28">
-        <v>62</v>
-      </c>
-      <c r="C23" s="28">
-        <v>5</v>
-      </c>
-      <c r="D23" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="28">
-        <v>62</v>
-      </c>
-      <c r="C24" s="28">
-        <v>5</v>
-      </c>
-      <c r="D24" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="28">
-        <v>62</v>
-      </c>
-      <c r="C25" s="28">
-        <v>5</v>
-      </c>
-      <c r="D25" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="28">
-        <v>62</v>
-      </c>
-      <c r="C26" s="28">
-        <v>5</v>
-      </c>
-      <c r="D26" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="28">
-        <v>62</v>
-      </c>
-      <c r="C27" s="28">
-        <v>5</v>
-      </c>
-      <c r="D27" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="26">
-        <v>1246913</v>
-      </c>
-      <c r="B28" s="28">
-        <v>70</v>
-      </c>
-      <c r="C28" s="28">
-        <v>5</v>
-      </c>
-      <c r="D28" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="28">
-        <v>70</v>
-      </c>
-      <c r="C29" s="28">
-        <v>5</v>
-      </c>
-      <c r="D29" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="28">
-        <v>70</v>
-      </c>
-      <c r="C30" s="28">
-        <v>5</v>
-      </c>
-      <c r="D30" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="28">
-        <v>70</v>
-      </c>
-      <c r="C31" s="28">
-        <v>5</v>
-      </c>
-      <c r="D31" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="28">
-        <v>70</v>
-      </c>
-      <c r="C32" s="28">
-        <v>5</v>
-      </c>
-      <c r="D32" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="28">
-        <v>70</v>
-      </c>
-      <c r="C33" s="28">
-        <v>5</v>
-      </c>
-      <c r="D33" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
-        <v>1246991</v>
-      </c>
-      <c r="B34" s="28">
-        <v>74</v>
-      </c>
-      <c r="C34" s="28">
-        <v>5</v>
-      </c>
-      <c r="D34" s="28">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="28">
-        <v>74</v>
-      </c>
-      <c r="C35" s="28">
-        <v>5</v>
-      </c>
-      <c r="D35" s="28">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="28">
-        <v>74</v>
-      </c>
-      <c r="C36" s="28">
-        <v>5</v>
-      </c>
-      <c r="D36" s="28">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="28">
-        <v>74</v>
-      </c>
-      <c r="C37" s="28">
-        <v>5</v>
-      </c>
-      <c r="D37" s="28">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="28">
-        <v>74</v>
-      </c>
-      <c r="C38" s="28">
-        <v>5</v>
-      </c>
-      <c r="D38" s="28">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="28">
-        <v>74</v>
-      </c>
-      <c r="C39" s="28">
-        <v>5</v>
-      </c>
-      <c r="D39" s="28">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="26">
-        <v>1246997</v>
-      </c>
-      <c r="B40" s="28">
-        <v>68</v>
-      </c>
-      <c r="C40" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="D40" s="28">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="28">
-        <v>68</v>
-      </c>
-      <c r="C41" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="D41" s="28">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="28">
-        <v>68</v>
-      </c>
-      <c r="C42" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="D42" s="28">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="28">
-        <v>68</v>
-      </c>
-      <c r="C43" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="D43" s="28">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="28">
-        <v>68</v>
-      </c>
-      <c r="C44" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="D44" s="28">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="28">
-        <v>68</v>
-      </c>
-      <c r="C45" s="28">
-        <v>4.5</v>
-      </c>
-      <c r="D45" s="28">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="26">
-        <v>1247166</v>
-      </c>
-      <c r="B46" s="28">
-        <v>72</v>
-      </c>
-      <c r="C46" s="28">
-        <v>5</v>
-      </c>
-      <c r="D46" s="28">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="28">
-        <v>72</v>
-      </c>
-      <c r="C47" s="28">
-        <v>5</v>
-      </c>
-      <c r="D47" s="28">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="28">
-        <v>72</v>
-      </c>
-      <c r="C48" s="28">
-        <v>5</v>
-      </c>
-      <c r="D48" s="28">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="28">
-        <v>72</v>
-      </c>
-      <c r="C49" s="28">
-        <v>5</v>
-      </c>
-      <c r="D49" s="28">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="28">
-        <v>72</v>
-      </c>
-      <c r="C50" s="28">
-        <v>5</v>
-      </c>
-      <c r="D50" s="28">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="28">
-        <v>72</v>
-      </c>
-      <c r="C51" s="28">
-        <v>5</v>
-      </c>
-      <c r="D51" s="28">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="26">
-        <v>1247197</v>
-      </c>
-      <c r="B52" s="28">
-        <v>74</v>
-      </c>
-      <c r="C52" s="28">
-        <v>5</v>
-      </c>
-      <c r="D52" s="28">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="28">
-        <v>74</v>
-      </c>
-      <c r="C53" s="28">
-        <v>5</v>
-      </c>
-      <c r="D53" s="28">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" s="28">
-        <v>74</v>
-      </c>
-      <c r="C54" s="28">
-        <v>5</v>
-      </c>
-      <c r="D54" s="28">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="28">
-        <v>74</v>
-      </c>
-      <c r="C55" s="28">
-        <v>5</v>
-      </c>
-      <c r="D55" s="28">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" s="28">
-        <v>74</v>
-      </c>
-      <c r="C56" s="28">
-        <v>5</v>
-      </c>
-      <c r="D56" s="28">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" s="28">
-        <v>74</v>
-      </c>
-      <c r="C57" s="28">
-        <v>5</v>
-      </c>
-      <c r="D57" s="28">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="26">
-        <v>1247331</v>
-      </c>
-      <c r="B58" s="28">
-        <v>60</v>
-      </c>
-      <c r="C58" s="28">
-        <v>5</v>
-      </c>
-      <c r="D58" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="28">
-        <v>60</v>
-      </c>
-      <c r="C59" s="28">
-        <v>5</v>
-      </c>
-      <c r="D59" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="28">
-        <v>60</v>
-      </c>
-      <c r="C60" s="28">
-        <v>5</v>
-      </c>
-      <c r="D60" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" s="28">
-        <v>60</v>
-      </c>
-      <c r="C61" s="28">
-        <v>5</v>
-      </c>
-      <c r="D61" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" s="28">
-        <v>60</v>
-      </c>
-      <c r="C62" s="28">
-        <v>5</v>
-      </c>
-      <c r="D62" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" s="28">
-        <v>60</v>
-      </c>
-      <c r="C63" s="28">
-        <v>5</v>
-      </c>
-      <c r="D63" s="28">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="26">
-        <v>1247404</v>
-      </c>
-      <c r="B64" s="28">
-        <v>72</v>
-      </c>
-      <c r="C64" s="28">
-        <v>5</v>
-      </c>
-      <c r="D64" s="28">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="26">
-        <v>1247484</v>
-      </c>
-      <c r="B65" s="28">
-        <v>64</v>
-      </c>
-      <c r="C65" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="D65" s="28">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="28">
-        <v>98</v>
-      </c>
-      <c r="C66" s="28">
-        <v>7</v>
-      </c>
-      <c r="D66" s="28">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B67" s="28">
-        <v>38</v>
-      </c>
-      <c r="C67" s="28">
-        <v>2</v>
-      </c>
-      <c r="D67" s="28">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" s="28">
-        <v>38</v>
-      </c>
-      <c r="C68" s="28">
-        <v>2</v>
-      </c>
-      <c r="D68" s="28">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="28">
-        <v>38</v>
-      </c>
-      <c r="C69" s="28">
-        <v>2</v>
-      </c>
-      <c r="D69" s="28">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" s="28">
-        <v>38</v>
-      </c>
-      <c r="C70" s="28">
-        <v>2</v>
-      </c>
-      <c r="D70" s="28">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B71" s="28">
-        <v>38</v>
-      </c>
-      <c r="C71" s="28">
-        <v>2</v>
-      </c>
-      <c r="D71" s="28">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B72" s="28">
-        <v>60</v>
-      </c>
-      <c r="C72" s="28">
-        <v>5</v>
-      </c>
-      <c r="D72" s="28">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B73" s="28">
-        <v>60</v>
-      </c>
-      <c r="C73" s="28">
-        <v>5</v>
-      </c>
-      <c r="D73" s="28">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B74" s="28">
-        <v>60</v>
-      </c>
-      <c r="C74" s="28">
-        <v>5</v>
-      </c>
-      <c r="D74" s="28">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B75" s="28">
-        <v>60</v>
-      </c>
-      <c r="C75" s="28">
-        <v>5</v>
-      </c>
-      <c r="D75" s="28">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76" s="28">
-        <v>60</v>
-      </c>
-      <c r="C76" s="28">
-        <v>5</v>
-      </c>
-      <c r="D76" s="28">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B77" s="28">
-        <v>914</v>
-      </c>
-      <c r="C77" s="28">
-        <v>60.5</v>
-      </c>
-      <c r="D77" s="28">
-        <v>1148</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8842,7 +7799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -9421,7 +8378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -9822,10 +8779,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9833,7 +8790,8 @@
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9861,14 +8819,10 @@
       <c r="C2" s="54">
         <v>249000</v>
       </c>
-      <c r="D2" s="60" t="str">
-        <f t="shared" ref="D2:D16" si="0">IF(C2&lt;250000,"C2*i3",IF(AND(C2&gt;250001,C2&lt;399999),"c2*i4",IF(AND(C2&gt;400000,C2&lt;499999),"c2*i5",IF(AND(C2&gt;500000,C2&lt;599999),"c2*i6",IF(AND(C2&gt;600000,C2&lt;2999999),"c2*i7",IF(C2&gt;=3000000,"c2*i8","F"))))))</f>
-        <v>C2*i3</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="62"/>
+      <c r="D2" s="60">
+        <f t="shared" ref="D2:D16" si="0">IF(C2&lt;=250000,C2*0,IF(C2&lt;=400000,250000*0+(C2-250000)*0.1,IF(C2&lt;=500000,250000*0+(400000-250000)*0.1+(C2-400000)*0.15,IF(C2&lt;=600000,250000*0+(400000-250000)*0.1+(500000-400000)*0.15+(C2-500000)*0.2,IF(C2&lt;=3000000,250000*0+(400000-250000)*0.1+(500000-400000)*0.15+(600000-500000)*0.2+(C2-600000)*0.25,IF(C2=3000000,250000*0+(400000-250000)*0.1+(500000-400000)*0.15+(600000-500000)*0.2+(3000000-600000)*0.25)+(C2-3000000)*0.35)))))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="55">
@@ -9880,16 +8834,14 @@
       <c r="C3" s="54">
         <v>251000</v>
       </c>
-      <c r="D3" s="60" t="str">
+      <c r="D3" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i4</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="49">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="63"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="55">
@@ -9901,15 +8853,15 @@
       <c r="C4" s="54">
         <v>390000</v>
       </c>
-      <c r="D4" s="60" t="str">
+      <c r="D4" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i4</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="49">
-        <v>0.1</v>
+        <v>14000</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="49">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -9922,15 +8874,15 @@
       <c r="C5" s="54">
         <v>410000</v>
       </c>
-      <c r="D5" s="60" t="str">
+      <c r="D5" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i5</v>
-      </c>
-      <c r="H5" s="48" t="s">
+        <v>16500</v>
+      </c>
+      <c r="F5" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="49">
-        <v>0.15</v>
+      <c r="G5" s="49">
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -9943,15 +8895,15 @@
       <c r="C6" s="54">
         <v>490000</v>
       </c>
-      <c r="D6" s="60" t="str">
+      <c r="D6" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i5</v>
-      </c>
-      <c r="H6" s="48" t="s">
+        <v>28500</v>
+      </c>
+      <c r="F6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="49">
-        <v>0.2</v>
+      <c r="G6" s="49">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -9964,15 +8916,15 @@
       <c r="C7" s="54">
         <v>515000</v>
       </c>
-      <c r="D7" s="60" t="str">
+      <c r="D7" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i6</v>
-      </c>
-      <c r="H7" s="48" t="s">
+        <v>33000</v>
+      </c>
+      <c r="F7" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="49">
-        <v>0.25</v>
+      <c r="G7" s="49">
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -9985,15 +8937,15 @@
       <c r="C8" s="54">
         <v>596000</v>
       </c>
-      <c r="D8" s="60" t="str">
+      <c r="D8" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i6</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="51">
-        <v>0.35</v>
+        <v>49200</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="49">
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -10006,9 +8958,15 @@
       <c r="C9" s="54">
         <v>620000</v>
       </c>
-      <c r="D9" s="60" t="str">
+      <c r="D9" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i7</v>
+        <v>55000</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="51">
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -10021,9 +8979,9 @@
       <c r="C10" s="54">
         <v>240000</v>
       </c>
-      <c r="D10" s="60" t="str">
+      <c r="D10" s="60">
         <f t="shared" si="0"/>
-        <v>C2*i3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -10036,11 +8994,11 @@
       <c r="C11" s="54">
         <v>350000</v>
       </c>
-      <c r="D11" s="60" t="str">
+      <c r="D11" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i4</v>
-      </c>
-      <c r="M11" s="63"/>
+        <v>10000</v>
+      </c>
+      <c r="M11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="55">
@@ -10052,9 +9010,9 @@
       <c r="C12" s="54">
         <v>450000</v>
       </c>
-      <c r="D12" s="60" t="str">
+      <c r="D12" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i5</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -10067,9 +9025,9 @@
       <c r="C13" s="54">
         <v>800000</v>
       </c>
-      <c r="D13" s="60" t="str">
+      <c r="D13" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i7</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -10082,9 +9040,9 @@
       <c r="C14" s="54">
         <v>4024500</v>
       </c>
-      <c r="D14" s="60" t="str">
+      <c r="D14" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i8</v>
+        <v>358575</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -10097,9 +9055,9 @@
       <c r="C15" s="54">
         <v>8829000</v>
       </c>
-      <c r="D15" s="60" t="str">
+      <c r="D15" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i8</v>
+        <v>2040149.9999999998</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -10112,14 +9070,36 @@
       <c r="C16" s="54">
         <v>11877000</v>
       </c>
-      <c r="D16" s="60" t="str">
+      <c r="D16" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i8</v>
+        <v>3106950</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66">
+        <v>248500</v>
+      </c>
+      <c r="D17" s="67">
+        <f>IF(C17&lt;=250000,C17*0,IF(C17&lt;=400000,250000*0+(C17-250000)*0.1,IF(C17&lt;=500000,250000*0+(400000-250000)*0.1+(C17-400000)*0.15,IF(C17&lt;=600000,250000*0+(400000-250000)*0.1+(500000-400000)*0.15+(C17-500000)*0.2,IF(C17&lt;=3000000,250000*0+(400000-250000)*0.1+(500000-400000)*0.15+(600000-500000)*0.2+(C17-600000)*0.25,IF(C17=3000000,250000*0+(400000-250000)*0.1+(500000-400000)*0.15+(600000-500000)*0.2+(3000000-600000)*0.25)+(C17-3000000)*0.35)))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="64"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66">
+        <v>300000</v>
+      </c>
+      <c r="D18" s="67">
+        <f>IF(C18&lt;=250000,C18*0,IF(C18&lt;=400000,250000*0+(C18-250000)*0.1,IF(C18&lt;=500000,250000*0+(400000-250000)*0.1+(C18-400000)*0.15,IF(C18&lt;=600000,250000*0+(400000-250000)*0.1+(500000-400000)*0.15+(C18-500000)*0.2,IF(C18&lt;=3000000,250000*0+(400000-250000)*0.1+(500000-400000)*0.15+(600000-500000)*0.2+(C18-600000)*0.25,IF(C18=3000000,250000*0+(400000-250000)*0.1+(500000-400000)*0.15+(600000-500000)*0.2+(3000000-600000)*0.25)+(C18-3000000)*0.35)))))</f>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10134,7 +9114,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11353,20 +10333,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -11619,7 +10585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -12192,4 +11158,1075 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>1246188</v>
+      </c>
+      <c r="B4" s="28">
+        <v>76</v>
+      </c>
+      <c r="C4" s="28">
+        <v>5</v>
+      </c>
+      <c r="D4" s="28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="28">
+        <v>76</v>
+      </c>
+      <c r="C5" s="28">
+        <v>5</v>
+      </c>
+      <c r="D5" s="28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="28">
+        <v>76</v>
+      </c>
+      <c r="C6" s="28">
+        <v>5</v>
+      </c>
+      <c r="D6" s="28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="28">
+        <v>76</v>
+      </c>
+      <c r="C7" s="28">
+        <v>5</v>
+      </c>
+      <c r="D7" s="28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="28">
+        <v>76</v>
+      </c>
+      <c r="C8" s="28">
+        <v>5</v>
+      </c>
+      <c r="D8" s="28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="28">
+        <v>76</v>
+      </c>
+      <c r="C9" s="28">
+        <v>5</v>
+      </c>
+      <c r="D9" s="28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>1246209</v>
+      </c>
+      <c r="B10" s="28">
+        <v>66</v>
+      </c>
+      <c r="C10" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D10" s="28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="28">
+        <v>66</v>
+      </c>
+      <c r="C11" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D11" s="28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="28">
+        <v>66</v>
+      </c>
+      <c r="C12" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D12" s="28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="28">
+        <v>66</v>
+      </c>
+      <c r="C13" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D13" s="28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="28">
+        <v>66</v>
+      </c>
+      <c r="C14" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D14" s="28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="28">
+        <v>66</v>
+      </c>
+      <c r="C15" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D15" s="28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>1246494</v>
+      </c>
+      <c r="B16" s="28">
+        <v>58</v>
+      </c>
+      <c r="C16" s="28">
+        <v>2</v>
+      </c>
+      <c r="D16" s="28">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="28">
+        <v>58</v>
+      </c>
+      <c r="C17" s="28">
+        <v>2</v>
+      </c>
+      <c r="D17" s="28">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="28">
+        <v>58</v>
+      </c>
+      <c r="C18" s="28">
+        <v>2</v>
+      </c>
+      <c r="D18" s="28">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="28">
+        <v>58</v>
+      </c>
+      <c r="C19" s="28">
+        <v>2</v>
+      </c>
+      <c r="D19" s="28">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="28">
+        <v>58</v>
+      </c>
+      <c r="C20" s="28">
+        <v>2</v>
+      </c>
+      <c r="D20" s="28">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="28">
+        <v>58</v>
+      </c>
+      <c r="C21" s="28">
+        <v>2</v>
+      </c>
+      <c r="D21" s="28">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <v>1246643</v>
+      </c>
+      <c r="B22" s="28">
+        <v>62</v>
+      </c>
+      <c r="C22" s="28">
+        <v>5</v>
+      </c>
+      <c r="D22" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="28">
+        <v>62</v>
+      </c>
+      <c r="C23" s="28">
+        <v>5</v>
+      </c>
+      <c r="D23" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="28">
+        <v>62</v>
+      </c>
+      <c r="C24" s="28">
+        <v>5</v>
+      </c>
+      <c r="D24" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="28">
+        <v>62</v>
+      </c>
+      <c r="C25" s="28">
+        <v>5</v>
+      </c>
+      <c r="D25" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="28">
+        <v>62</v>
+      </c>
+      <c r="C26" s="28">
+        <v>5</v>
+      </c>
+      <c r="D26" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="28">
+        <v>62</v>
+      </c>
+      <c r="C27" s="28">
+        <v>5</v>
+      </c>
+      <c r="D27" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
+        <v>1246913</v>
+      </c>
+      <c r="B28" s="28">
+        <v>70</v>
+      </c>
+      <c r="C28" s="28">
+        <v>5</v>
+      </c>
+      <c r="D28" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="28">
+        <v>70</v>
+      </c>
+      <c r="C29" s="28">
+        <v>5</v>
+      </c>
+      <c r="D29" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="28">
+        <v>70</v>
+      </c>
+      <c r="C30" s="28">
+        <v>5</v>
+      </c>
+      <c r="D30" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="28">
+        <v>70</v>
+      </c>
+      <c r="C31" s="28">
+        <v>5</v>
+      </c>
+      <c r="D31" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="28">
+        <v>70</v>
+      </c>
+      <c r="C32" s="28">
+        <v>5</v>
+      </c>
+      <c r="D32" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="28">
+        <v>70</v>
+      </c>
+      <c r="C33" s="28">
+        <v>5</v>
+      </c>
+      <c r="D33" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
+        <v>1246991</v>
+      </c>
+      <c r="B34" s="28">
+        <v>74</v>
+      </c>
+      <c r="C34" s="28">
+        <v>5</v>
+      </c>
+      <c r="D34" s="28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="28">
+        <v>74</v>
+      </c>
+      <c r="C35" s="28">
+        <v>5</v>
+      </c>
+      <c r="D35" s="28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="28">
+        <v>74</v>
+      </c>
+      <c r="C36" s="28">
+        <v>5</v>
+      </c>
+      <c r="D36" s="28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="28">
+        <v>74</v>
+      </c>
+      <c r="C37" s="28">
+        <v>5</v>
+      </c>
+      <c r="D37" s="28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="28">
+        <v>74</v>
+      </c>
+      <c r="C38" s="28">
+        <v>5</v>
+      </c>
+      <c r="D38" s="28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="28">
+        <v>74</v>
+      </c>
+      <c r="C39" s="28">
+        <v>5</v>
+      </c>
+      <c r="D39" s="28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="26">
+        <v>1246997</v>
+      </c>
+      <c r="B40" s="28">
+        <v>68</v>
+      </c>
+      <c r="C40" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D40" s="28">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="28">
+        <v>68</v>
+      </c>
+      <c r="C41" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D41" s="28">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="28">
+        <v>68</v>
+      </c>
+      <c r="C42" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D42" s="28">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="28">
+        <v>68</v>
+      </c>
+      <c r="C43" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D43" s="28">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="28">
+        <v>68</v>
+      </c>
+      <c r="C44" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D44" s="28">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="28">
+        <v>68</v>
+      </c>
+      <c r="C45" s="28">
+        <v>4.5</v>
+      </c>
+      <c r="D45" s="28">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="26">
+        <v>1247166</v>
+      </c>
+      <c r="B46" s="28">
+        <v>72</v>
+      </c>
+      <c r="C46" s="28">
+        <v>5</v>
+      </c>
+      <c r="D46" s="28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="28">
+        <v>72</v>
+      </c>
+      <c r="C47" s="28">
+        <v>5</v>
+      </c>
+      <c r="D47" s="28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="28">
+        <v>72</v>
+      </c>
+      <c r="C48" s="28">
+        <v>5</v>
+      </c>
+      <c r="D48" s="28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="28">
+        <v>72</v>
+      </c>
+      <c r="C49" s="28">
+        <v>5</v>
+      </c>
+      <c r="D49" s="28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="28">
+        <v>72</v>
+      </c>
+      <c r="C50" s="28">
+        <v>5</v>
+      </c>
+      <c r="D50" s="28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="28">
+        <v>72</v>
+      </c>
+      <c r="C51" s="28">
+        <v>5</v>
+      </c>
+      <c r="D51" s="28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="26">
+        <v>1247197</v>
+      </c>
+      <c r="B52" s="28">
+        <v>74</v>
+      </c>
+      <c r="C52" s="28">
+        <v>5</v>
+      </c>
+      <c r="D52" s="28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="28">
+        <v>74</v>
+      </c>
+      <c r="C53" s="28">
+        <v>5</v>
+      </c>
+      <c r="D53" s="28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="28">
+        <v>74</v>
+      </c>
+      <c r="C54" s="28">
+        <v>5</v>
+      </c>
+      <c r="D54" s="28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="28">
+        <v>74</v>
+      </c>
+      <c r="C55" s="28">
+        <v>5</v>
+      </c>
+      <c r="D55" s="28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="28">
+        <v>74</v>
+      </c>
+      <c r="C56" s="28">
+        <v>5</v>
+      </c>
+      <c r="D56" s="28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="28">
+        <v>74</v>
+      </c>
+      <c r="C57" s="28">
+        <v>5</v>
+      </c>
+      <c r="D57" s="28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="26">
+        <v>1247331</v>
+      </c>
+      <c r="B58" s="28">
+        <v>60</v>
+      </c>
+      <c r="C58" s="28">
+        <v>5</v>
+      </c>
+      <c r="D58" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="28">
+        <v>60</v>
+      </c>
+      <c r="C59" s="28">
+        <v>5</v>
+      </c>
+      <c r="D59" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="28">
+        <v>60</v>
+      </c>
+      <c r="C60" s="28">
+        <v>5</v>
+      </c>
+      <c r="D60" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="28">
+        <v>60</v>
+      </c>
+      <c r="C61" s="28">
+        <v>5</v>
+      </c>
+      <c r="D61" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="28">
+        <v>60</v>
+      </c>
+      <c r="C62" s="28">
+        <v>5</v>
+      </c>
+      <c r="D62" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="28">
+        <v>60</v>
+      </c>
+      <c r="C63" s="28">
+        <v>5</v>
+      </c>
+      <c r="D63" s="28">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="26">
+        <v>1247404</v>
+      </c>
+      <c r="B64" s="28">
+        <v>72</v>
+      </c>
+      <c r="C64" s="28">
+        <v>5</v>
+      </c>
+      <c r="D64" s="28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="26">
+        <v>1247484</v>
+      </c>
+      <c r="B65" s="28">
+        <v>64</v>
+      </c>
+      <c r="C65" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="D65" s="28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="28">
+        <v>98</v>
+      </c>
+      <c r="C66" s="28">
+        <v>7</v>
+      </c>
+      <c r="D66" s="28">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="28">
+        <v>38</v>
+      </c>
+      <c r="C67" s="28">
+        <v>2</v>
+      </c>
+      <c r="D67" s="28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="28">
+        <v>38</v>
+      </c>
+      <c r="C68" s="28">
+        <v>2</v>
+      </c>
+      <c r="D68" s="28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="28">
+        <v>38</v>
+      </c>
+      <c r="C69" s="28">
+        <v>2</v>
+      </c>
+      <c r="D69" s="28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="28">
+        <v>38</v>
+      </c>
+      <c r="C70" s="28">
+        <v>2</v>
+      </c>
+      <c r="D70" s="28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="28">
+        <v>38</v>
+      </c>
+      <c r="C71" s="28">
+        <v>2</v>
+      </c>
+      <c r="D71" s="28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="28">
+        <v>60</v>
+      </c>
+      <c r="C72" s="28">
+        <v>5</v>
+      </c>
+      <c r="D72" s="28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="28">
+        <v>60</v>
+      </c>
+      <c r="C73" s="28">
+        <v>5</v>
+      </c>
+      <c r="D73" s="28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="28">
+        <v>60</v>
+      </c>
+      <c r="C74" s="28">
+        <v>5</v>
+      </c>
+      <c r="D74" s="28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" s="28">
+        <v>60</v>
+      </c>
+      <c r="C75" s="28">
+        <v>5</v>
+      </c>
+      <c r="D75" s="28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" s="28">
+        <v>60</v>
+      </c>
+      <c r="C76" s="28">
+        <v>5</v>
+      </c>
+      <c r="D76" s="28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="28">
+        <v>914</v>
+      </c>
+      <c r="C77" s="28">
+        <v>60.5</v>
+      </c>
+      <c r="D77" s="28">
+        <v>1148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Practice 1.xlsx
+++ b/Practice 1.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Shuvo\IDB\IT-Concept\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1246913\IT-Concept\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,9 @@
   <sheets>
     <sheet name="Practice-1" sheetId="1" r:id="rId1"/>
     <sheet name="Exam-2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet11" sheetId="12" r:id="rId5"/>
+    <sheet name="Tax" sheetId="3" r:id="rId3"/>
+    <sheet name="4th Sub" sheetId="4" r:id="rId4"/>
+    <sheet name="Chart" sheetId="12" r:id="rId5"/>
     <sheet name="Sheet10" sheetId="11" r:id="rId6"/>
     <sheet name="Sheet9" sheetId="10" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlcn.WorksheetConnection_Sheet4A1J151" hidden="1">Sheet4!$A$1:$J$15</definedName>
     <definedName name="_xlcn.WorksheetConnection_Sheet7A1J151" hidden="1">Sheet7!$A$1:$J$15</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId13"/>
     <pivotCache cacheId="1" r:id="rId14"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -284,34 +284,85 @@
     <t>0-250000</t>
   </si>
   <si>
-    <t>250001-399999</t>
+    <t>Tax Rate</t>
   </si>
   <si>
-    <t>400000-499999</t>
+    <t>250001-400000</t>
   </si>
   <si>
-    <t>500000-599999</t>
+    <t>400001-500000</t>
   </si>
   <si>
-    <t>600000-2999999</t>
+    <t>500001-600000</t>
   </si>
   <si>
-    <t>3000000-above</t>
+    <t>3000001-above</t>
   </si>
   <si>
-    <t>Tax Rate</t>
+    <t>600001-3000000</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>abdul</t>
+  </si>
+  <si>
+    <t>seikh</t>
+  </si>
+  <si>
+    <t>mehedi</t>
+  </si>
+  <si>
+    <t>showkat</t>
+  </si>
+  <si>
+    <t>arfin</t>
+  </si>
+  <si>
+    <t>hamid</t>
+  </si>
+  <si>
+    <t>hasina</t>
+  </si>
+  <si>
+    <t>hasan</t>
+  </si>
+  <si>
+    <t>hossain</t>
+  </si>
+  <si>
+    <t>hamid@gmail.com</t>
+  </si>
+  <si>
+    <t>hasina@gmail.com</t>
+  </si>
+  <si>
+    <t>hossain@gmail.com</t>
+  </si>
+  <si>
+    <t>arfin@gmail.com</t>
+  </si>
+  <si>
+    <t>shuvo@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +444,22 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -669,11 +736,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -805,16 +873,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
@@ -1140,7 +1215,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1153,7 +1228,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[exam-marks.xlsx]Sheet11!PivotTable5</c:name>
+    <c:name>[Practice 1.xlsx]Chart!PivotTable5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1337,7 +1412,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet11!$B$3</c:f>
+              <c:f>Chart!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1365,6 +1440,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-02F8-454F-BCED-79CE874FE1F7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1385,6 +1465,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-02F8-454F-BCED-79CE874FE1F7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1405,6 +1490,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-02F8-454F-BCED-79CE874FE1F7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1425,10 +1515,15 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-02F8-454F-BCED-79CE874FE1F7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet11!$A$4:$A$8</c:f>
+              <c:f>Chart!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1448,7 +1543,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet11!$B$4:$B$8</c:f>
+              <c:f>Chart!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1467,7 +1562,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-084B-4E46-B850-F240C90487ED}"/>
             </c:ext>
@@ -1557,12 +1652,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -1572,12 +1662,17 @@
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1590,7 +1685,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[exam-marks.xlsx]Sheet8!PivotTable4</c:name>
+    <c:name>[Practice 1.xlsx]Sheet8!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1764,7 +1859,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C297-4F79-B685-D908C9CBAD58}"/>
             </c:ext>
@@ -1889,7 +1984,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C297-4F79-B685-D908C9CBAD58}"/>
             </c:ext>
@@ -2014,7 +2109,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C297-4F79-B685-D908C9CBAD58}"/>
             </c:ext>
@@ -2213,12 +2308,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -2228,12 +2318,17 @@
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2411,7 +2506,7 @@
               </c:pt>
             </c:numLit>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0653-4CCE-A820-8DE7DA643AD4}"/>
             </c:ext>
@@ -2480,7 +2575,7 @@
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{F40574EE-89B7-4290-83BB-5DA773EAF853}">
             <c15:numFmt c:formatCode="General" c:sourceLinked="1"/>
           </c:ext>
@@ -2541,7 +2636,7 @@
         <c:crossAx val="119443168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{F40574EE-89B7-4290-83BB-5DA773EAF853}">
             <c15:numFmt c:formatCode="General" c:sourceLinked="1"/>
           </c:ext>
@@ -2615,15 +2710,10 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{723BEF56-08C2-4564-9609-F4CBC75E7E54}">
       <c15:pivotSource>
-        <c15:name>[exam-marks.xlsx]PivotChartTable1</c15:name>
+        <c15:name>[Practice 1.xlsx]PivotChartTable1</c15:name>
         <c15:fmtId val="0"/>
       </c15:pivotSource>
       <c15:pivotOptions>
@@ -2633,6 +2723,11 @@
         <c15:dropZoneSeries val="1"/>
         <c15:dropZonesVisible val="1"/>
       </c15:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -6629,7 +6724,7 @@
     <tableColumn id="2" name="Name" dataDxfId="2"/>
     <tableColumn id="3" name="Income" dataDxfId="1"/>
     <tableColumn id="4" name="TAX" dataDxfId="0">
-      <calculatedColumnFormula>IF(C2&lt;250000,"C2*i3",IF(AND(C2&gt;250001,C2&lt;399999),"c2*i4",IF(AND(C2&gt;400000,C2&lt;499999),"c2*i5",IF(AND(C2&gt;500000,C2&lt;599999),"c2*i6",IF(AND(C2&gt;600000,C2&lt;2999999),"c2*i7",IF(C2&gt;=3000000,"c2*i8","F"))))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(C2&lt;=250000,C2*0,IF(C2&lt;=400000,250000*0+(C2-250000)*0.1,IF(C2&lt;=500000,250000*0+(400000-250000)*0.1+(C2-400000)*0.15,IF(C2&lt;=600000,250000*0+(400000-250000)*0.1+(500000-400000)*0.15+(C2-500000)*0.2,IF(C2&lt;=3000000,250000*0+(400000-250000)*0.1+(500000-400000)*0.15+(600000-500000)*0.2+(C2-600000)*0.25,IF(C2&gt;3000000,250000*0+(400000-250000)*0.1+(500000-400000)*0.15+(600000-500000)*0.2+(3000000-600000)*0.25+(C2-3000000)*0.35,))))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9422,7 +9517,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9475,9 +9570,6 @@
         <f t="shared" ref="F2:F15" si="2">IF(AND(C2&gt;=80*70%,C2&lt;80*80%),"A",IF(AND(C2&gt;=80*80%,C2&lt;80*90%), "A+",IF(C2&gt;=80*90%, "A++","Fail")))</f>
         <v>A+</v>
       </c>
-      <c r="K2">
-        <v>52</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -9501,9 +9593,6 @@
         <f t="shared" si="2"/>
         <v>A++</v>
       </c>
-      <c r="K3">
-        <v>58</v>
-      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -9527,9 +9616,6 @@
         <f t="shared" si="2"/>
         <v>A++</v>
       </c>
-      <c r="K4">
-        <v>85</v>
-      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -9553,9 +9639,6 @@
         <f t="shared" si="2"/>
         <v>A+</v>
       </c>
-      <c r="K5">
-        <v>98</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -9581,10 +9664,7 @@
       </c>
       <c r="H6" s="8"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="11">
-        <f>MAX(K2:K5)</f>
-        <v>98</v>
-      </c>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -9608,10 +9688,7 @@
         <f t="shared" si="2"/>
         <v>A+</v>
       </c>
-      <c r="K7" s="12">
-        <f>AVERAGE(K2:K6)</f>
-        <v>78.2</v>
-      </c>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -9635,10 +9712,7 @@
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-      <c r="K8" s="10">
-        <f>MIN(K2:K5)</f>
-        <v>52</v>
-      </c>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -9825,7 +9899,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="H2" sqref="H2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9861,14 +9935,14 @@
       <c r="C2" s="54">
         <v>249000</v>
       </c>
-      <c r="D2" s="60" t="str">
-        <f t="shared" ref="D2:D16" si="0">IF(C2&lt;250000,"C2*i3",IF(AND(C2&gt;250001,C2&lt;399999),"c2*i4",IF(AND(C2&gt;400000,C2&lt;499999),"c2*i5",IF(AND(C2&gt;500000,C2&lt;599999),"c2*i6",IF(AND(C2&gt;600000,C2&lt;2999999),"c2*i7",IF(C2&gt;=3000000,"c2*i8","F"))))))</f>
-        <v>C2*i3</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="62"/>
+      <c r="D2" s="60">
+        <f t="shared" ref="D2:D16" si="0">IF(C2&lt;=250000,C2*0,IF(C2&lt;=400000,250000*0+(C2-250000)*0.1,IF(C2&lt;=500000,250000*0+(400000-250000)*0.1+(C2-400000)*0.15,IF(C2&lt;=600000,250000*0+(400000-250000)*0.1+(500000-400000)*0.15+(C2-500000)*0.2,IF(C2&lt;=3000000,250000*0+(400000-250000)*0.1+(500000-400000)*0.15+(600000-500000)*0.2+(C2-600000)*0.25,IF(C2&gt;3000000,250000*0+(400000-250000)*0.1+(500000-400000)*0.15+(600000-500000)*0.2+(3000000-600000)*0.25+(C2-3000000)*0.35,))))))</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="55">
@@ -9880,9 +9954,9 @@
       <c r="C3" s="54">
         <v>251000</v>
       </c>
-      <c r="D3" s="60" t="str">
+      <c r="D3" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i4</v>
+        <v>100</v>
       </c>
       <c r="H3" s="48" t="s">
         <v>54</v>
@@ -9901,12 +9975,12 @@
       <c r="C4" s="54">
         <v>390000</v>
       </c>
-      <c r="D4" s="60" t="str">
+      <c r="D4" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i4</v>
+        <v>14000</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I4" s="49">
         <v>0.1</v>
@@ -9922,12 +9996,12 @@
       <c r="C5" s="54">
         <v>410000</v>
       </c>
-      <c r="D5" s="60" t="str">
+      <c r="D5" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i5</v>
+        <v>16500</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" s="49">
         <v>0.15</v>
@@ -9943,12 +10017,12 @@
       <c r="C6" s="54">
         <v>490000</v>
       </c>
-      <c r="D6" s="60" t="str">
+      <c r="D6" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i5</v>
+        <v>28500</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I6" s="49">
         <v>0.2</v>
@@ -9964,12 +10038,12 @@
       <c r="C7" s="54">
         <v>515000</v>
       </c>
-      <c r="D7" s="60" t="str">
+      <c r="D7" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i6</v>
+        <v>33000</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I7" s="49">
         <v>0.25</v>
@@ -9985,9 +10059,9 @@
       <c r="C8" s="54">
         <v>596000</v>
       </c>
-      <c r="D8" s="60" t="str">
+      <c r="D8" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i6</v>
+        <v>49200</v>
       </c>
       <c r="H8" s="50" t="s">
         <v>59</v>
@@ -10006,9 +10080,9 @@
       <c r="C9" s="54">
         <v>620000</v>
       </c>
-      <c r="D9" s="60" t="str">
+      <c r="D9" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i7</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -10021,9 +10095,9 @@
       <c r="C10" s="54">
         <v>240000</v>
       </c>
-      <c r="D10" s="60" t="str">
+      <c r="D10" s="60">
         <f t="shared" si="0"/>
-        <v>C2*i3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -10036,11 +10110,11 @@
       <c r="C11" s="54">
         <v>350000</v>
       </c>
-      <c r="D11" s="60" t="str">
+      <c r="D11" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i4</v>
-      </c>
-      <c r="M11" s="63"/>
+        <v>10000</v>
+      </c>
+      <c r="M11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="55">
@@ -10052,9 +10126,9 @@
       <c r="C12" s="54">
         <v>450000</v>
       </c>
-      <c r="D12" s="60" t="str">
+      <c r="D12" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i5</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -10067,9 +10141,9 @@
       <c r="C13" s="54">
         <v>800000</v>
       </c>
-      <c r="D13" s="60" t="str">
+      <c r="D13" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i7</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -10082,9 +10156,9 @@
       <c r="C14" s="54">
         <v>4024500</v>
       </c>
-      <c r="D14" s="60" t="str">
+      <c r="D14" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i8</v>
+        <v>1008575</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -10097,9 +10171,9 @@
       <c r="C15" s="54">
         <v>8829000</v>
       </c>
-      <c r="D15" s="60" t="str">
+      <c r="D15" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i8</v>
+        <v>2690150</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -10112,9 +10186,9 @@
       <c r="C16" s="54">
         <v>11877000</v>
       </c>
-      <c r="D16" s="60" t="str">
+      <c r="D16" s="60">
         <f t="shared" si="0"/>
-        <v>c2*i8</v>
+        <v>3756950</v>
       </c>
     </row>
   </sheetData>
@@ -10781,567 +10855,572 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J15"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="34">
         <v>1246209</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="36">
         <v>66</v>
       </c>
-      <c r="D2" s="17" t="str">
+      <c r="D2" s="43" t="str">
         <f t="shared" ref="D2:D15" si="0">IF(C2&gt;=56,"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="E2" s="18" t="str">
+      <c r="E2" s="44" t="str">
         <f t="shared" ref="E2:E15" si="1">IF(AND(C2&gt;=80*70%,C2&lt;80*80%),"Good","Bad")</f>
         <v>Bad</v>
       </c>
-      <c r="F2" s="19" t="str">
+      <c r="F2" s="45" t="str">
         <f t="shared" ref="F2:F15" si="2">IF(AND(C2&gt;=80*70%,C2&lt;80*80%),"A-",IF(AND(C2&gt;=80*80%,C2&lt;80*90%), "A",IF(C2&gt;=80*90%, "A+","Fail")))</f>
         <v>A</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" s="33" t="str">
         <f t="shared" ref="G2:G15" si="3">IF(AND(C2&gt;=80*70%,C2&lt;80*80%),"3.5",IF(AND(C2&gt;=80*80%,C2&lt;80*90%), "4",IF(C2&gt;=80*90%, "5","2")))</f>
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="33">
         <v>80</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="33" t="str">
         <f>IF(AND(H2&gt;=100*70%,H2&lt;100*80%),"3.5",IF(AND(H2&gt;=100*80%,H2&lt;100*90%), "4",IF(H2&gt;=100*90%, "5","2")))</f>
         <v>4</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="33">
         <f>IF(OR(G2&lt;5,I2&gt;3.5),IF(G2+(I2-3.5)&gt;5,5,G2+(I2-3.5)),G2)</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="34">
         <v>1247404</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="36">
         <v>72</v>
       </c>
-      <c r="D3" s="17" t="str">
+      <c r="D3" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="E3" s="18" t="str">
+      <c r="E3" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Bad</v>
       </c>
-      <c r="F3" s="19" t="str">
+      <c r="F3" s="45" t="str">
         <f t="shared" si="2"/>
         <v>A+</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3" s="33" t="str">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="33">
         <v>85</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I3" s="33" t="str">
         <f t="shared" ref="I3:I15" si="4">IF(AND(H3&gt;=100*70%,H3&lt;100*80%),"3.5",IF(AND(H3&gt;=100*80%,H3&lt;100*90%), "4",IF(H3&gt;=100*90%, "5","2")))</f>
         <v>4</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="33">
         <f t="shared" ref="J3:J15" si="5">IF(OR(G3&lt;5,I3&gt;3.5),IF(G3+(I3-3.5)&gt;5,5,G3+(I3-3.5)),G3)</f>
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="34">
         <v>1247197</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="36">
         <v>74</v>
       </c>
-      <c r="D4" s="17" t="str">
+      <c r="D4" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="E4" s="18" t="str">
+      <c r="E4" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Bad</v>
       </c>
-      <c r="F4" s="19" t="str">
+      <c r="F4" s="45" t="str">
         <f t="shared" si="2"/>
         <v>A+</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" s="33" t="str">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="33">
         <v>92</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" s="33" t="str">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="33">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="34">
         <v>1247484</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="36">
         <v>64</v>
       </c>
-      <c r="D5" s="17" t="str">
+      <c r="D5" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="E5" s="18" t="str">
+      <c r="E5" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Bad</v>
       </c>
-      <c r="F5" s="19" t="str">
+      <c r="F5" s="45" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G5" s="33" t="str">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="33">
         <v>48</v>
       </c>
-      <c r="I5" t="str">
+      <c r="I5" s="33" t="str">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="33">
         <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="34">
         <v>1247166</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="B6" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="36">
         <v>72</v>
       </c>
-      <c r="D6" s="17" t="str">
+      <c r="D6" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="E6" s="18" t="str">
+      <c r="E6" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Bad</v>
       </c>
-      <c r="F6" s="19" t="str">
+      <c r="F6" s="45" t="str">
         <f t="shared" si="2"/>
         <v>A+</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6" s="33" t="str">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="33">
         <v>78</v>
       </c>
-      <c r="I6" t="str">
+      <c r="I6" s="33" t="str">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="33">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="34">
         <v>1246997</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="36">
         <v>68</v>
       </c>
-      <c r="D7" s="17" t="str">
+      <c r="D7" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="E7" s="18" t="str">
+      <c r="E7" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Bad</v>
       </c>
-      <c r="F7" s="19" t="str">
+      <c r="F7" s="45" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7" s="33" t="str">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="33">
         <v>83</v>
       </c>
-      <c r="I7" t="str">
+      <c r="I7" s="33" t="str">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="33">
         <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="34">
         <v>1247331</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="36">
         <v>60</v>
       </c>
-      <c r="D8" s="17" t="str">
+      <c r="D8" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="E8" s="18" t="str">
+      <c r="E8" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Good</v>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="F8" s="45" t="str">
         <f t="shared" si="2"/>
         <v>A-</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8" s="33" t="str">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="33">
         <v>95</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" s="33" t="str">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="33">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="36">
         <v>60</v>
       </c>
-      <c r="D9" s="17" t="str">
+      <c r="D9" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="E9" s="18" t="str">
+      <c r="E9" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Good</v>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="F9" s="45" t="str">
         <f t="shared" si="2"/>
         <v>A-</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G9" s="33" t="str">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="33">
         <v>96</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" s="33" t="str">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="33">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="34">
         <v>1246188</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="36">
         <v>76</v>
       </c>
-      <c r="D10" s="17" t="str">
+      <c r="D10" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="E10" s="18" t="str">
+      <c r="E10" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Bad</v>
       </c>
-      <c r="F10" s="19" t="str">
+      <c r="F10" s="45" t="str">
         <f t="shared" si="2"/>
         <v>A+</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10" s="33" t="str">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="33">
         <v>92</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" s="33" t="str">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="33">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="34">
         <v>1246991</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="36">
         <v>74</v>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D11" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="E11" s="18" t="str">
+      <c r="E11" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Bad</v>
       </c>
-      <c r="F11" s="19" t="str">
+      <c r="F11" s="45" t="str">
         <f t="shared" si="2"/>
         <v>A+</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11" s="33" t="str">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="33">
         <v>75</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I11" s="33" t="str">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="33">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="34">
         <v>1246913</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="36">
         <v>70</v>
       </c>
-      <c r="D12" s="17" t="str">
+      <c r="D12" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="E12" s="18" t="str">
+      <c r="E12" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Bad</v>
       </c>
-      <c r="F12" s="19" t="str">
+      <c r="F12" s="45" t="str">
         <f t="shared" si="2"/>
         <v>A</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12" s="33" t="str">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="33">
         <v>95</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I12" s="33" t="str">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="33">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="36">
         <v>38</v>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
-      <c r="E13" s="18" t="str">
+      <c r="E13" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Bad</v>
       </c>
-      <c r="F13" s="19" t="str">
+      <c r="F13" s="45" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G13" s="33" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="33">
         <v>78</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I13" s="33" t="str">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="33">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="34">
         <v>1246643</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="36">
         <v>62</v>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D14" s="43" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="E14" s="18" t="str">
+      <c r="E14" s="44" t="str">
         <f t="shared" si="1"/>
         <v>Good</v>
       </c>
-      <c r="F14" s="19" t="str">
+      <c r="F14" s="45" t="str">
         <f t="shared" si="2"/>
         <v>A-</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G14" s="33" t="str">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="33">
         <v>95</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I14" s="33" t="str">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="33">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="37">
         <v>1246494</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="39">
         <v>58</v>
       </c>
-      <c r="D15" s="23" t="str">
+      <c r="D15" s="46" t="str">
         <f t="shared" si="0"/>
         <v>Pass</v>
       </c>
-      <c r="E15" s="24" t="str">
+      <c r="E15" s="47" t="str">
         <f t="shared" si="1"/>
         <v>Good</v>
       </c>
-      <c r="F15" s="19" t="str">
+      <c r="F15" s="45" t="str">
         <f t="shared" si="2"/>
         <v>A-</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G15" s="33" t="str">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="33">
         <v>56</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" s="33" t="str">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="33">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -11353,15 +11432,95 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
